--- a/data/trans_orig/P36BPD02_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>131210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109812</v>
+        <v>108455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>152137</v>
+        <v>151116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2856259185047615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2390455304012125</v>
+        <v>0.2360921256491819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3311803118809556</v>
+        <v>0.3289594129973994</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -762,19 +762,19 @@
         <v>142981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123865</v>
+        <v>126088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162717</v>
+        <v>165853</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2407690897581603</v>
+        <v>0.2407690897581604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2085790001873643</v>
+        <v>0.2123220890200804</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2740018877388093</v>
+        <v>0.2792822405145394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>310</v>
@@ -783,19 +783,19 @@
         <v>274191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246845</v>
+        <v>245351</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>304288</v>
+        <v>302499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2603338603671839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.234369067472616</v>
+        <v>0.2329510290339407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2889096034988115</v>
+        <v>0.2872104581156783</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>211069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188259</v>
+        <v>187273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>234634</v>
+        <v>235988</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4594687632358626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4098141466774305</v>
+        <v>0.4076667905192771</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5107654623223435</v>
+        <v>0.513712583154028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>373</v>
@@ -833,19 +833,19 @@
         <v>269726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248291</v>
+        <v>248213</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293832</v>
+        <v>291887</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4541967688549295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4181016492830553</v>
+        <v>0.4179705784860411</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4947887014436426</v>
+        <v>0.4915135636446832</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>569</v>
@@ -854,19 +854,19 @@
         <v>480795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447596</v>
+        <v>448214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>515555</v>
+        <v>511942</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4564962038260839</v>
+        <v>0.456496203826084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4249745780037442</v>
+        <v>0.4255610963062324</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.489498768951303</v>
+        <v>0.4860685551422662</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>117098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97461</v>
+        <v>99118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136848</v>
+        <v>136597</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2549053182593758</v>
+        <v>0.2549053182593759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2121587523303555</v>
+        <v>0.2157658654336284</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2978997605355641</v>
+        <v>0.2973525480664761</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>256</v>
@@ -904,19 +904,19 @@
         <v>181145</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158197</v>
+        <v>160043</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>199122</v>
+        <v>201381</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3050341413869102</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2663904975985022</v>
+        <v>0.2694986506971816</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.335305878485388</v>
+        <v>0.3391085447552143</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>366</v>
@@ -925,19 +925,19 @@
         <v>298243</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>271400</v>
+        <v>270966</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>326619</v>
+        <v>328918</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2831699358067322</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2576839399203231</v>
+        <v>0.2572713516682169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3101115471707709</v>
+        <v>0.3122949509744907</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>157472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135845</v>
+        <v>132663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>184779</v>
+        <v>183532</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1759390789694296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1517755551919411</v>
+        <v>0.1482200747088716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2064485168995028</v>
+        <v>0.2050552983743968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>250</v>
@@ -1050,19 +1050,19 @@
         <v>172542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150901</v>
+        <v>151614</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195358</v>
+        <v>192420</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1641495661215168</v>
+        <v>0.1641495661215167</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1435619098729165</v>
+        <v>0.1442399491945641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1858558265876413</v>
+        <v>0.1830608174246868</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>399</v>
@@ -1071,19 +1071,19 @@
         <v>330014</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>297724</v>
+        <v>298104</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>362882</v>
+        <v>366223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1695715554724739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1529797883660174</v>
+        <v>0.1531752878037504</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1864599825684749</v>
+        <v>0.1881770378482376</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>412457</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>378730</v>
+        <v>379796</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>444194</v>
+        <v>445120</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4608251762810492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4231430655491797</v>
+        <v>0.4243344521127246</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4962843129622423</v>
+        <v>0.4973186040669507</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>706</v>
@@ -1121,19 +1121,19 @@
         <v>490125</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>461579</v>
+        <v>461114</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>519608</v>
+        <v>518472</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4662866463682218</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4391286355266644</v>
+        <v>0.4386869621772479</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4943359836924121</v>
+        <v>0.4932544476789716</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1113</v>
@@ -1142,19 +1142,19 @@
         <v>902582</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>860233</v>
+        <v>860290</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>947280</v>
+        <v>941511</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4637749197994295</v>
+        <v>0.4637749197994296</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4420146985405963</v>
+        <v>0.442044420819533</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4867423352096214</v>
+        <v>0.4837782928260378</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>325110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>293810</v>
+        <v>295485</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>358644</v>
+        <v>357047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3632357447495211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3282655403083403</v>
+        <v>0.330136802979686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4007018044666611</v>
+        <v>0.3989181192583636</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>569</v>
@@ -1192,19 +1192,19 @@
         <v>388457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>360890</v>
+        <v>361953</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>416767</v>
+        <v>415742</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3695637875102615</v>
+        <v>0.3695637875102614</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3433371606649092</v>
+        <v>0.3443482675859064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3964962675101132</v>
+        <v>0.395521699442767</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>875</v>
@@ -1213,19 +1213,19 @@
         <v>713568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>672925</v>
+        <v>676410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>756764</v>
+        <v>758974</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3666535247280965</v>
+        <v>0.3666535247280966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3457701179318194</v>
+        <v>0.3475609413973776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.388849177199006</v>
+        <v>0.3899845545017269</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>131480</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108358</v>
+        <v>110127</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>155413</v>
+        <v>156094</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1300267303844486</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1071601266276257</v>
+        <v>0.1089095520907874</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.15369570076723</v>
+        <v>0.1543686022957331</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>197</v>
@@ -1338,19 +1338,19 @@
         <v>151163</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>129921</v>
+        <v>130431</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>172088</v>
+        <v>173209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1482502921684009</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1274176535666922</v>
+        <v>0.127917954798475</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1687729493053489</v>
+        <v>0.1698723663120784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>322</v>
@@ -1359,19 +1359,19 @@
         <v>282642</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>251315</v>
+        <v>254143</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>314374</v>
+        <v>314719</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1391765083988014</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1237505173633837</v>
+        <v>0.125143108061001</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1548014090748462</v>
+        <v>0.1549713101531939</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>483771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>451085</v>
+        <v>449334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>518688</v>
+        <v>516938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4784236742262529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4460991720172021</v>
+        <v>0.4443680414142043</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5129548048910173</v>
+        <v>0.5112242499586351</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>683</v>
@@ -1409,19 +1409,19 @@
         <v>480781</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>452743</v>
+        <v>454612</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>509788</v>
+        <v>509115</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.471518950965675</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4440205760834691</v>
+        <v>0.445853498220297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4999661899747563</v>
+        <v>0.4993071028742581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1166</v>
@@ -1430,19 +1430,19 @@
         <v>964552</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>921215</v>
+        <v>918519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1008205</v>
+        <v>1003548</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4749569158705697</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4536174298224203</v>
+        <v>0.4522897927448243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4964521733195499</v>
+        <v>0.49415905651647</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>395926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364000</v>
+        <v>363367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>430958</v>
+        <v>431686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3915495953892985</v>
+        <v>0.3915495953892984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3599766259417774</v>
+        <v>0.3593506904947695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4261946128296809</v>
+        <v>0.4269145644588349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -1480,19 +1480,19 @@
         <v>387700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>359844</v>
+        <v>360044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414806</v>
+        <v>414444</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3802307568659241</v>
+        <v>0.3802307568659242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3529111725442751</v>
+        <v>0.3531074548614847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4068141183452531</v>
+        <v>0.4064596737772265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>987</v>
@@ -1501,19 +1501,19 @@
         <v>783626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741636</v>
+        <v>738871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>826715</v>
+        <v>827000</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3858665757306289</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3651906335868256</v>
+        <v>0.3638286652053556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4070842432623972</v>
+        <v>0.4072244872449643</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>104578</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83837</v>
+        <v>83290</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128508</v>
+        <v>127841</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1106480259926196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08870308222448586</v>
+        <v>0.0881239338205084</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1359663405629877</v>
+        <v>0.1352605907141295</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>137</v>
@@ -1626,19 +1626,19 @@
         <v>106805</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87665</v>
+        <v>89084</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124451</v>
+        <v>126996</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1199315516718402</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09843873272870841</v>
+        <v>0.1000319864149486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1397455078192639</v>
+        <v>0.1426035305973362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -1647,19 +1647,19 @@
         <v>211384</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>183850</v>
+        <v>186688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238304</v>
+        <v>242122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.115151744065489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1001525717612718</v>
+        <v>0.1016989761652414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1298166309503153</v>
+        <v>0.13189683282791</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>430853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>398865</v>
+        <v>398126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>465655</v>
+        <v>464363</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4558587032383873</v>
+        <v>0.4558587032383872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4220144450583274</v>
+        <v>0.4212329446520376</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4926810581260666</v>
+        <v>0.4913145521180235</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>637</v>
@@ -1697,19 +1697,19 @@
         <v>424555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>396865</v>
+        <v>397455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>451484</v>
+        <v>449356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4767326538831869</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4456398766517649</v>
+        <v>0.4463023173078255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5069711936725303</v>
+        <v>0.504581240687402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1066</v>
@@ -1718,19 +1718,19 @@
         <v>855407</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>812894</v>
+        <v>812077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>898927</v>
+        <v>898760</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4659852857480464</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4428261316478788</v>
+        <v>0.4423808515735865</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4896929217433129</v>
+        <v>0.4896019095187024</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>409714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>376266</v>
+        <v>378971</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>443156</v>
+        <v>444310</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4334932707689932</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.398104242804911</v>
+        <v>0.4009654846844943</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4688762006896969</v>
+        <v>0.4700970932810314</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>527</v>
@@ -1768,19 +1768,19 @@
         <v>359191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>332648</v>
+        <v>335158</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>384722</v>
+        <v>387361</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4033357944449729</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3735299530305451</v>
+        <v>0.3763483106140252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.432004356405093</v>
+        <v>0.4349671642045178</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>935</v>
@@ -1789,19 +1789,19 @@
         <v>768905</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>725580</v>
+        <v>725399</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>811083</v>
+        <v>812044</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4188629701864646</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3952616050684151</v>
+        <v>0.3951629910834777</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4418395248639024</v>
+        <v>0.4423628864677776</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>524741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>483676</v>
+        <v>480601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>575080</v>
+        <v>571766</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1584966454828646</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1460930242763488</v>
+        <v>0.1451643866359623</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1737016077184162</v>
+        <v>0.1727005254979217</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>769</v>
@@ -1914,19 +1914,19 @@
         <v>573491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>533693</v>
+        <v>530094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>614935</v>
+        <v>614388</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1613116439526066</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1501173257787139</v>
+        <v>0.1491048447438924</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1729690079722848</v>
+        <v>0.1728152243493413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1258</v>
@@ -1935,19 +1935,19 @@
         <v>1098232</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037514</v>
+        <v>1033878</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1160646</v>
+        <v>1158398</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1599542536812646</v>
+        <v>0.1599542536812647</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1511109155436695</v>
+        <v>0.150581393145107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1690447705581448</v>
+        <v>0.1687173504123453</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1538149</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1474449</v>
+        <v>1475430</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1598736</v>
+        <v>1594927</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4645941354576193</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4453537433700968</v>
+        <v>0.4456499331983523</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4828942265849434</v>
+        <v>0.4817437996766453</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2399</v>
@@ -1985,19 +1985,19 @@
         <v>1665188</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1611987</v>
+        <v>1609046</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1715699</v>
+        <v>1712019</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4683844881091174</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4534201043276217</v>
+        <v>0.4525929582266651</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4825923423705459</v>
+        <v>0.4815571694674363</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3914</v>
@@ -2006,19 +2006,19 @@
         <v>3203337</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3117172</v>
+        <v>3123322</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3287352</v>
+        <v>3284166</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4665567827411034</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.454007138068755</v>
+        <v>0.454902905281659</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4787934138450523</v>
+        <v>0.4783292644059525</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1247847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1185984</v>
+        <v>1185165</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1309299</v>
+        <v>1309128</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.376909219059516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3582235606956016</v>
+        <v>0.3579762813618206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3954706772827818</v>
+        <v>0.3954190136808839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1945</v>
@@ -2056,19 +2056,19 @@
         <v>1316494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1259703</v>
+        <v>1268644</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1363673</v>
+        <v>1366915</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3703038679382761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3543295973364029</v>
+        <v>0.3568446587118039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3835743165454775</v>
+        <v>0.3844862344486761</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3163</v>
@@ -2077,19 +2077,19 @@
         <v>2564342</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2484191</v>
+        <v>2483042</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2639190</v>
+        <v>2645165</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.373488963577632</v>
+        <v>0.3734889635776321</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3618152137255914</v>
+        <v>0.3616478614229246</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3843903535646119</v>
+        <v>0.3852606789677605</v>
       </c>
     </row>
     <row r="23">
